--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业主营业务收入.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业主营业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,686 +538,532 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25200275</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43824305.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14244617.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59141963.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11485125.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>55309431</v>
+      </c>
+      <c r="H2" t="n">
+        <v>114173048.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45912578</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5595079.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11286571.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>107025252.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>359844293.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>86104422.40000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>199577277.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>83068616</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>104078402.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15923710.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>99025481.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1936862.4</v>
+      </c>
       <c r="U2" t="n">
-        <v>100337200</v>
+        <v>744828000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33444131</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53757155.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17292892.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71181682.59999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13629223.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67386379.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>144843798.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>54890139.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6469562.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15252895.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>118655514</v>
+      </c>
+      <c r="M3" t="n">
+        <v>432063436.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>113183826.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>211635343.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>84483511.59999999</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>118201929.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19343078.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>119264902.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2306599.1</v>
+      </c>
       <c r="U3" t="n">
-        <v>339217854.2</v>
+        <v>875272036.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>41125313.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61700983.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24399288.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83042916.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16020350.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>77721334.40000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>173376744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61721887.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9276649.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19787936</v>
+      </c>
+      <c r="L4" t="n">
+        <v>130656921</v>
+      </c>
+      <c r="M4" t="n">
+        <v>527991019</v>
+      </c>
+      <c r="N4" t="n">
+        <v>127253578.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>220451907.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27245668.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>126443534.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>23299361.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>137699766</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3131096.3</v>
+      </c>
       <c r="U4" t="n">
-        <v>557289100</v>
+        <v>1022840366.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19428860</v>
+        <v>50225866.4</v>
       </c>
       <c r="C5" t="n">
-        <v>33200443</v>
+        <v>70098791</v>
       </c>
       <c r="D5" t="n">
-        <v>12051817</v>
+        <v>30438270.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47803269</v>
+        <v>94338443.5</v>
       </c>
       <c r="F5" t="n">
-        <v>9393287</v>
+        <v>18535962.5</v>
       </c>
       <c r="G5" t="n">
-        <v>42593730</v>
+        <v>88634753.5</v>
       </c>
       <c r="H5" t="n">
-        <v>90870035</v>
+        <v>204842236.9</v>
       </c>
       <c r="I5" t="n">
-        <v>39142923</v>
+        <v>75607067.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4089161</v>
+        <v>15540038.2</v>
       </c>
       <c r="K5" t="n">
-        <v>9193237</v>
+        <v>24037417.8</v>
       </c>
       <c r="L5" t="n">
-        <v>81015173</v>
+        <v>136138851.3</v>
       </c>
       <c r="M5" t="n">
-        <v>284654741</v>
+        <v>606338853.1</v>
       </c>
       <c r="N5" t="n">
-        <v>61629660</v>
+        <v>135606400.5</v>
       </c>
       <c r="O5" t="n">
-        <v>164319913</v>
+        <v>232141666.2</v>
       </c>
       <c r="P5" t="n">
-        <v>64735332</v>
+        <v>25055794.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>92769343</v>
+        <v>138934831.1</v>
       </c>
       <c r="R5" t="n">
-        <v>13228484</v>
+        <v>28531500.7</v>
       </c>
       <c r="S5" t="n">
-        <v>85405265</v>
+        <v>170189376.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1320742</v>
+        <v>4441636.4</v>
       </c>
       <c r="U5" t="n">
-        <v>595666902</v>
+        <v>1160489010.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25200275</v>
+        <v>57458164.6</v>
       </c>
       <c r="C6" t="n">
-        <v>43824305.3</v>
+        <v>77239474.59999999</v>
       </c>
       <c r="D6" t="n">
-        <v>14244617.2</v>
+        <v>42482148.7</v>
       </c>
       <c r="E6" t="n">
-        <v>59141963.6</v>
+        <v>105180734.9</v>
       </c>
       <c r="F6" t="n">
-        <v>11485125.7</v>
+        <v>21825532.7</v>
       </c>
       <c r="G6" t="n">
-        <v>55309431</v>
+        <v>99065007.3</v>
       </c>
       <c r="H6" t="n">
-        <v>114173048.2</v>
+        <v>233503300.4</v>
       </c>
       <c r="I6" t="n">
-        <v>45912578</v>
+        <v>73589130.7</v>
       </c>
       <c r="J6" t="n">
-        <v>5595079.6</v>
+        <v>16190073.6</v>
       </c>
       <c r="K6" t="n">
-        <v>11286571.3</v>
+        <v>28013384.8</v>
       </c>
       <c r="L6" t="n">
-        <v>107025252.3</v>
+        <v>147173393.4</v>
       </c>
       <c r="M6" t="n">
-        <v>359844293.4</v>
+        <v>675842084.8</v>
       </c>
       <c r="N6" t="n">
-        <v>86104422.40000001</v>
+        <v>148795349.8</v>
       </c>
       <c r="O6" t="n">
-        <v>199577277.3</v>
+        <v>234990666.4</v>
       </c>
       <c r="P6" t="n">
-        <v>83068616</v>
+        <v>27746780.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>104078402.9</v>
+        <v>137693434.4</v>
       </c>
       <c r="R6" t="n">
-        <v>15923710.8</v>
+        <v>30275630.6</v>
       </c>
       <c r="S6" t="n">
-        <v>99025481.5</v>
+        <v>199599439.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1936862.4</v>
+        <v>4435240.7</v>
       </c>
       <c r="U6" t="n">
-        <v>744828000</v>
+        <v>1273676689.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33444131</v>
+        <v>62772407.3</v>
       </c>
       <c r="C7" t="n">
-        <v>53757155.7</v>
+        <v>80405891.3</v>
       </c>
       <c r="D7" t="n">
-        <v>17292892.5</v>
+        <v>44894551.4</v>
       </c>
       <c r="E7" t="n">
-        <v>71181682.59999999</v>
+        <v>114169550.7</v>
       </c>
       <c r="F7" t="n">
-        <v>13629223.6</v>
+        <v>24312572.6</v>
       </c>
       <c r="G7" t="n">
-        <v>67386379.3</v>
+        <v>104718463.9</v>
       </c>
       <c r="H7" t="n">
-        <v>144843798.6</v>
+        <v>257295341.9</v>
       </c>
       <c r="I7" t="n">
-        <v>54890139.9</v>
+        <v>77395310.59999999</v>
       </c>
       <c r="J7" t="n">
-        <v>6469562.2</v>
+        <v>17187027.5</v>
       </c>
       <c r="K7" t="n">
-        <v>15252895.5</v>
+        <v>31608821.2</v>
       </c>
       <c r="L7" t="n">
-        <v>118655514</v>
+        <v>160122387</v>
       </c>
       <c r="M7" t="n">
-        <v>432063436.7</v>
+        <v>783099325.3</v>
       </c>
       <c r="N7" t="n">
-        <v>113183826.5</v>
+        <v>158088854.2</v>
       </c>
       <c r="O7" t="n">
-        <v>211635343.5</v>
+        <v>194079482.4</v>
       </c>
       <c r="P7" t="n">
-        <v>84483511.59999999</v>
+        <v>29021714.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>118201929.1</v>
+        <v>112579173.8</v>
       </c>
       <c r="R7" t="n">
-        <v>19343078.5</v>
+        <v>34125711</v>
       </c>
       <c r="S7" t="n">
-        <v>119264902.5</v>
+        <v>271083560.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2306599.1</v>
+        <v>4435881.3</v>
       </c>
       <c r="U7" t="n">
-        <v>875272036.6</v>
+        <v>1399686469.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41125313.1</v>
+        <v>67483062.09999999</v>
       </c>
       <c r="C8" t="n">
-        <v>61700983.9</v>
+        <v>87834046.5</v>
       </c>
       <c r="D8" t="n">
-        <v>24399288.6</v>
+        <v>52251669.5</v>
       </c>
       <c r="E8" t="n">
-        <v>83042916.8</v>
+        <v>126410570.9</v>
       </c>
       <c r="F8" t="n">
-        <v>16020350.5</v>
+        <v>28684606.7</v>
       </c>
       <c r="G8" t="n">
-        <v>77721334.40000001</v>
+        <v>116518653.2</v>
       </c>
       <c r="H8" t="n">
-        <v>173376744</v>
+        <v>282061137</v>
       </c>
       <c r="I8" t="n">
-        <v>61721887.8</v>
+        <v>80250934.90000001</v>
       </c>
       <c r="J8" t="n">
-        <v>9276649.5</v>
+        <v>19859720.2</v>
       </c>
       <c r="K8" t="n">
-        <v>19787936</v>
+        <v>32855330.3</v>
       </c>
       <c r="L8" t="n">
-        <v>130656921</v>
+        <v>170777731.3</v>
       </c>
       <c r="M8" t="n">
-        <v>527991019</v>
+        <v>873046805.8</v>
       </c>
       <c r="N8" t="n">
-        <v>127253578.9</v>
+        <v>176844083.6</v>
       </c>
       <c r="O8" t="n">
-        <v>220451907.8</v>
+        <v>197601411.2</v>
       </c>
       <c r="P8" t="n">
-        <v>27245668.2</v>
+        <v>28890449.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>126443534.7</v>
+        <v>113542741</v>
       </c>
       <c r="R8" t="n">
-        <v>23299361.6</v>
+        <v>38016667.7</v>
       </c>
       <c r="S8" t="n">
-        <v>137699766</v>
+        <v>305779202.5</v>
       </c>
       <c r="T8" t="n">
-        <v>3131096.3</v>
+        <v>4582063.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1022840366.8</v>
+        <v>1537963345.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50225866.4</v>
+        <v>55051816.6</v>
       </c>
       <c r="C9" t="n">
-        <v>70098791</v>
+        <v>92504905.59999999</v>
       </c>
       <c r="D9" t="n">
-        <v>30438270.6</v>
+        <v>53935894.9</v>
       </c>
       <c r="E9" t="n">
-        <v>94338443.5</v>
+        <v>128746559.4</v>
       </c>
       <c r="F9" t="n">
-        <v>18535962.5</v>
+        <v>28166810.1</v>
       </c>
       <c r="G9" t="n">
-        <v>88634753.5</v>
+        <v>120671715.7</v>
       </c>
       <c r="H9" t="n">
-        <v>204842236.9</v>
+        <v>271165714.2</v>
       </c>
       <c r="I9" t="n">
-        <v>75607067.8</v>
+        <v>75964603.90000001</v>
       </c>
       <c r="J9" t="n">
-        <v>15540038.2</v>
+        <v>18222634.2</v>
       </c>
       <c r="K9" t="n">
-        <v>24037417.8</v>
+        <v>30317950.6</v>
       </c>
       <c r="L9" t="n">
-        <v>136138851.3</v>
+        <v>177035733.4</v>
       </c>
       <c r="M9" t="n">
-        <v>606338853.1</v>
+        <v>934520593.6</v>
       </c>
       <c r="N9" t="n">
-        <v>135606400.5</v>
+        <v>190018623.6</v>
       </c>
       <c r="O9" t="n">
-        <v>232141666.2</v>
+        <v>206170246</v>
       </c>
       <c r="P9" t="n">
-        <v>25055794.1</v>
+        <v>28864715.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>138934831.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>28531500.7</v>
-      </c>
+        <v>121581748.6</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>170189376.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4441636.4</v>
-      </c>
+        <v>347800246</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1160489010.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>57458164.6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>77239474.59999999</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42482148.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>105180734.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>21825532.7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99065007.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>233503300.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>73589130.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16190073.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>28013384.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>147173393.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>675842084.8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>148795349.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>234990666.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>27746780.6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>137693434.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>30275630.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>199599439.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4435240.7</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1273676689.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>62772407.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>80405891.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44894551.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>114169550.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24312572.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>104718463.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>257295341.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>77395310.59999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17187027.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>31608821.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>160122387</v>
-      </c>
-      <c r="M11" t="n">
-        <v>783099325.3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>158088854.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>194079482.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>29021714.8</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>112579173.8</v>
-      </c>
-      <c r="R11" t="n">
-        <v>34125711</v>
-      </c>
-      <c r="S11" t="n">
-        <v>271083560.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4435881.3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1399686469.2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>67483062.09999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>87834046.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52251669.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>126410570.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28684606.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>116518653.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>282061137</v>
-      </c>
-      <c r="I12" t="n">
-        <v>80250934.90000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>19859720.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>32855330.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>170777731.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>873046805.8</v>
-      </c>
-      <c r="N12" t="n">
-        <v>176844083.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>197601411.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>28890449.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>113542741</v>
-      </c>
-      <c r="R12" t="n">
-        <v>38016667.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>305779202.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4582063.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1537963345.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>55051816.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>92504905.59999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>53935894.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>128746559.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>28166810.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>120671715.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>271165714.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75964603.90000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18222634.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>30317950.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>177035733.4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>934520593.6</v>
-      </c>
-      <c r="N13" t="n">
-        <v>190018623.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>206170246</v>
-      </c>
-      <c r="P13" t="n">
-        <v>28864715.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>121581748.6</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>347800246</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
         <v>1593758107.3</v>
       </c>
     </row>
